--- a/biology/Médecine/Michel_Odoul/Michel_Odoul.xlsx
+++ b/biology/Médecine/Michel_Odoul/Michel_Odoul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Odoul est le fondateur de l'Institut français de shiatsu, un institut de formation professionnelle aux médecines non conventionnelles). Il est également conférencier et formateur.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Odoul, diplômé d'une école supérieure de commerce, s'initie au shiatsu et à la médecine traditionnelle chinoise[1]. 
-Devenu enseignant, il publie en 1994 Dis moi où tu as mal, je te dirai pourquoi qui s'écoule à 500 000 exemplaires[2]. 
-Il fonde en 1996 l’Institut Français de Shiatsu[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Odoul, diplômé d'une école supérieure de commerce, s'initie au shiatsu et à la médecine traditionnelle chinoise. 
+Devenu enseignant, il publie en 1994 Dis moi où tu as mal, je te dirai pourquoi qui s'écoule à 500 000 exemplaires. 
+Il fonde en 1996 l’Institut Français de Shiatsu.
 </t>
         </is>
       </c>
